--- a/data/trans_dic/P38_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P38_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +579,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>M4</t>
+          <t>M5</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>39,01%</t>
+          <t>37,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>39,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>43,72%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,8%</t>
+          <t>38,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,09%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>56,77%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,47%</t>
+          <t>37,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39,9%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>51,38%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,18; 47,91</t>
+          <t>26,48; 46,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,24; 59,11</t>
+          <t>32,45; 47,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,71; 51,68</t>
+          <t>28,97; 54,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 41,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,54; 64,31</t>
+          <t>30,07; 46,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,36; 61,93</t>
+          <t>34,2; 45,53</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,07; 42,1</t>
+          <t>48,38; 65,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,39; 60,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>45,56; 55,49</t>
+          <t>31,16; 43,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35,25; 44,85</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43,21; 58,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,45%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>27,58%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>17,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>16,93%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>27,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,27</t>
+          <t>11,74; 19,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,93; 34,54</t>
+          <t>11,31; 17,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,55</t>
+          <t>19,63; 29,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,23; 21,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 41,5</t>
+          <t>14,75; 23,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,1; 31,51</t>
+          <t>16,26; 23,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 18,57</t>
+          <t>26,4; 36,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,87; 36,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,23; 25,21</t>
+          <t>14,37; 20,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>14,5; 19,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>24,24; 31,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>31,23%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>27,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>28,63%</t>
+          <t>14,5%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,1%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>27,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,58; 14,77</t>
+          <t>8,92; 16,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,32; 43,15</t>
+          <t>12,3; 19,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 29,89</t>
+          <t>22,31; 33,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,41; 19,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,3; 45,74</t>
+          <t>12,47; 20,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,95; 35,13</t>
+          <t>14,89; 22,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,1</t>
+          <t>23,42; 32,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>36,61; 43,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,08; 31,49</t>
+          <t>11,9; 17,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>14,61; 19,97</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24,06; 31,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>18,76%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>18,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,33%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>35,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>40,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>19,37%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>20,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>35,18%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,83; 20,96</t>
+          <t>15,29; 22,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,47; 40,64</t>
+          <t>13,76; 24,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,87; 29,33</t>
+          <t>29,42; 41,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,52; 23,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>41,73; 47,25</t>
+          <t>16,94; 24,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,24; 38,78</t>
+          <t>19,3; 29,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 21,56</t>
+          <t>29,87; 41,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,04; 43,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 33,4</t>
+          <t>17,12; 22,2</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>17,37; 24,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,08; 39,32</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19,45%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19,71%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,67%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>33,6%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16,03; 20,72</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>17,22; 21,94</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 34,51</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18,65; 23,22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>21,55; 26,15</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,16; 39,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,11; 21,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>20,15; 23,19</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>31,29; 35,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña (tasa de respuesta: 99,58%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>208019</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>195606</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>161261</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>253547</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>361047</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>288055</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>461566</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>556652</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>89813; 158538</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>170006; 247443</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>129611; 241938</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>126789; 197129</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>216513; 288223</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>307693; 416706</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>237103; 332633</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>407761; 518858</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>468145; 629370</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>140799</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>170462</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>259206</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>186069</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>237730</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>333615</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>326868</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>408192</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>592820</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>108492; 184664</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>133728; 212709</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>208626; 317223</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>146767; 235426</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>199713; 283959</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>279582; 389841</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>275638; 389944</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>349453; 465939</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>514349; 669023</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>90579</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>128397</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>227158</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>124721</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>174728</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>244512</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>215300</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>303125</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>471671</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>63820; 118527</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>103408; 166256</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>183751; 279697</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>95942; 160865</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>138700; 213239</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>208808; 289706</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>176658; 264161</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>258947; 353984</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>412633; 545839</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>271617</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153616</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>380581</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>279175</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>178827</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>340479</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>550793</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>332443</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>721060</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>221429; 326582</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>116776; 207574</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>318149; 446140</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>236319; 335858</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>146227; 220513</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>289189; 404752</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>486845; 631297</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>278996; 388241</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>637081; 805880</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>266.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>324.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>629.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>715.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>629789</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>660494</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1062550</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>751226</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>844832</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1279653</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1381015</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1505326</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2342203</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>549461; 709949</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>584747; 744829</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>958912; 1178684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>667783; 831449</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>765130; 928605</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1178868; 1392950</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1268914; 1500661</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1399890; 1610590</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2180875; 2507856</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
